--- a/results/lancet2018/global/1.1 temperature change/temperature_change.xlsx
+++ b/results/lancet2018/global/1.1 temperature change/temperature_change.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonathan\Dropbox\Lancet\health-climate-exposure\results\lancet2018\global\1.1 temperature change\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EA3A4C-5BF3-4AA9-9496-A8A2B233684E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temperature_change" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="temperature_change" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>year</t>
   </si>
@@ -29,23 +34,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,26 +66,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -367,20 +390,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -391,205 +414,359 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2000</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.009225452102731463</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09778638957434088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="n">
+      <c r="B2">
+        <v>9.2254521027314625E-3</v>
+      </c>
+      <c r="C2">
+        <v>9.7786389574340882E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2001</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>0.1252769789091695</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.1550341132759264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>0.15503411327592639</v>
+      </c>
+      <c r="E3">
+        <f>B3-B2</f>
+        <v>0.11605152680643804</v>
+      </c>
+      <c r="F3">
+        <f>C3-C2</f>
+        <v>5.7247723701585512E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2002</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>0.1178350190746574</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.3605272057783124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>0.36052720577831238</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:F19" si="0">B4-B3</f>
+        <v>-7.4419598345120963E-3</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.20549309250238598</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>2003</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.1695577928114936</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3334438625423102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>0.16955779281149361</v>
+      </c>
+      <c r="C5">
+        <v>0.33344386254231018</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.1722773736836203E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-2.70833432360022E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>2004</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.1023848652268902</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02448096600931638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>0.10238486522689021</v>
+      </c>
+      <c r="C6">
+        <v>2.4480966009316381E-2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-6.7172927584603401E-2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.3089628965329938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2005</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.1962223650011765</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5014928239285228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>0.19622236500117651</v>
+      </c>
+      <c r="C7">
+        <v>0.50149282392852279</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>9.3837499774286307E-2</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.47701185791920642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2006</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.1741561177673945</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5670347419837088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>0.17415611776739451</v>
+      </c>
+      <c r="C8">
+        <v>0.56703474198370885</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-2.2066247233782005E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>6.5541918055186055E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>2007</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.115649029466083</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4030652828795402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>0.11564902946608301</v>
+      </c>
+      <c r="C9">
+        <v>0.40306528287954019</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-5.8507088301311502E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-0.16396945910416866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>2008</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.04410192941445391</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07302713611131692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="n">
+      <c r="B10">
+        <v>4.4101929414453907E-2</v>
+      </c>
+      <c r="C10">
+        <v>7.302713611131692E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-7.1547100051629092E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-0.33003814676822329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>2009</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.1392517181040119</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5137794691644446</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="n">
+      <c r="B11">
+        <v>0.13925171810401191</v>
+      </c>
+      <c r="C11">
+        <v>0.51377946916444461</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>9.5149788689558007E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.44075233305312767</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>2010</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.2259417927807661</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12">
+        <v>0.22594179278076609</v>
+      </c>
+      <c r="C12">
         <v>0.7458795071457438</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="n">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8.6690074676754186E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.23210003798129919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>2011</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.119884491426404</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3872505839028292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="n">
+      <c r="B13">
+        <v>0.11988449142640401</v>
+      </c>
+      <c r="C13">
+        <v>0.38725058390282918</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-0.10605730135436209</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-0.35862892324291462</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>2012</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.1709945627475059</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6613445184995035</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="n">
+      <c r="B14">
+        <v>0.17099456274750591</v>
+      </c>
+      <c r="C14">
+        <v>0.66134451849950349</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>5.1110071321101902E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.2740939345966743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>2013</v>
       </c>
-      <c r="B15" t="n">
-        <v>0.1788851081141453</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4880170074064863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="n">
+      <c r="B15">
+        <v>0.17888510811414529</v>
+      </c>
+      <c r="C15">
+        <v>0.48801700740648629</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>7.8905453666393843E-3</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-0.17332751109301719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2014</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>0.1922909634769889</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.5449194176486525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="n">
+      <c r="C16">
+        <v>0.54491941764865248</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.3405855362843611E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>5.690241024216619E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2015</v>
       </c>
-      <c r="B17" t="n">
-        <v>0.2815102389513935</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6595070715323357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="n">
+      <c r="B17">
+        <v>0.28151023895139349</v>
+      </c>
+      <c r="C17">
+        <v>0.65950707153233568</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>8.9219275474404586E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.11458765388368319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2016</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.3515836631562515</v>
       </c>
-      <c r="C18" t="n">
-        <v>0.8764418895189904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="n">
+      <c r="C18">
+        <v>0.87644188951899038</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.0073424204858015E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.2169348179866547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2017</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.2777449545430186</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7688641589000961</v>
+      <c r="B19">
+        <v>0.27774495454301862</v>
+      </c>
+      <c r="C19">
+        <v>0.76886415890009607</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-7.3838708613232884E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-0.10757773061889431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>AVERAGE(B2:B19)</f>
+        <v>0.16624983572636309</v>
+      </c>
+      <c r="C21">
+        <f>AVERAGE(C2:C19)</f>
+        <v>0.45343867476679872</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ref="D21:F21" si="1">AVERAGE(E2:E19)</f>
+        <v>1.5795264849428659E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>3.947516290151501E-2</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/lancet2018/global/1.1 temperature change/temperature_change.xlsx
+++ b/results/lancet2018/global/1.1 temperature change/temperature_change.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonathan\Dropbox\Lancet\health-climate-exposure\results\lancet2018\global\1.1 temperature change\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EA3A4C-5BF3-4AA9-9496-A8A2B233684E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="temperature_change" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="temperature_change" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
   <si>
     <t>year</t>
   </si>
@@ -34,24 +29,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,43 +60,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -390,20 +367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,359 +391,205 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="B2">
-        <v>9.2254521027314625E-3</v>
-      </c>
-      <c r="C2">
-        <v>9.7786389574340882E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" t="n">
+        <v>-0.05470840598944397</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02348149565725675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="B3">
-        <v>0.1252769789091695</v>
-      </c>
-      <c r="C3">
-        <v>0.15503411327592639</v>
-      </c>
-      <c r="E3">
-        <f>B3-B2</f>
-        <v>0.11605152680643804</v>
-      </c>
-      <c r="F3">
-        <f>C3-C2</f>
-        <v>5.7247723701585512E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B3" t="n">
+        <v>0.06146913156759747</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08035090028664527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="B4">
-        <v>0.1178350190746574</v>
-      </c>
-      <c r="C4">
-        <v>0.36052720577831238</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:F19" si="0">B4-B3</f>
-        <v>-7.4419598345120963E-3</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>0.20549309250238598</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B4" t="n">
+        <v>0.05420709948278696</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.2860503998425643</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="B5">
-        <v>0.16955779281149361</v>
-      </c>
-      <c r="C5">
-        <v>0.33344386254231018</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>5.1722773736836203E-2</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-2.70833432360022E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B5" t="n">
+        <v>0.1061246956703104</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2666343442625096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="B6">
-        <v>0.10238486522689021</v>
-      </c>
-      <c r="C6">
-        <v>2.4480966009316381E-2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-6.7172927584603401E-2</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-0.3089628965329938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B6" t="n">
+        <v>0.03893357355642064</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.04067403353126434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="B7">
-        <v>0.19622236500117651</v>
-      </c>
-      <c r="C7">
-        <v>0.50149282392852279</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>9.3837499774286307E-2</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>0.47701185791920642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B7" t="n">
+        <v>0.132737131345373</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4329576964254714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="B8">
-        <v>0.17415611776739451</v>
-      </c>
-      <c r="C8">
-        <v>0.56703474198370885</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>-2.2066247233782005E-2</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>6.5541918055186055E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B8" t="n">
+        <v>0.1105025989525349</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.497664600490847</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="B9">
-        <v>0.11564902946608301</v>
-      </c>
-      <c r="C9">
-        <v>0.40306528287954019</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>-5.8507088301311502E-2</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-0.16396945910416866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B9" t="n">
+        <v>0.0521733795029049</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3344587036497743</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="B10">
-        <v>4.4101929414453907E-2</v>
-      </c>
-      <c r="C10">
-        <v>7.302713611131692E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>-7.1547100051629092E-2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-0.33003814676822329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B10" t="n">
+        <v>-0.0199969453296623</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.004257439192368777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="B11">
-        <v>0.13925171810401191</v>
-      </c>
-      <c r="C11">
-        <v>0.51377946916444461</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>9.5149788689558007E-2</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>0.44075233305312767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B11" t="n">
+        <v>0.07542900618574253</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4503952287727154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="B12">
-        <v>0.22594179278076609</v>
-      </c>
-      <c r="C12">
-        <v>0.7458795071457438</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>8.6690074676754186E-2</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>0.23210003798129919</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B12" t="n">
+        <v>0.1626830173904758</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6806465399354487</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="B13">
-        <v>0.11988449142640401</v>
-      </c>
-      <c r="C13">
-        <v>0.38725058390282918</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>-0.10605730135436209</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-0.35862892324291462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B13" t="n">
+        <v>0.05598847932284267</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3196388207007396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="B14">
-        <v>0.17099456274750591</v>
-      </c>
-      <c r="C14">
-        <v>0.66134451849950349</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>5.1110071321101902E-2</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>0.2740939345966743</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B14" t="n">
+        <v>0.1071874241603045</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5968276321517296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="B15">
-        <v>0.17888510811414529</v>
-      </c>
-      <c r="C15">
-        <v>0.48801700740648629</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>7.8905453666393843E-3</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-0.17332751109301719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B15" t="n">
+        <v>0.1154698956088884</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4232857404016725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="B16">
-        <v>0.1922909634769889</v>
-      </c>
-      <c r="C16">
-        <v>0.54491941764865248</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1.3405855362843611E-2</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>5.690241024216619E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B16" t="n">
+        <v>0.1287001171060344</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4811115771437301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="B17">
-        <v>0.28151023895139349</v>
-      </c>
-      <c r="C17">
-        <v>0.65950707153233568</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>8.9219275474404586E-2</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>0.11458765388368319</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B17" t="n">
+        <v>0.2179234943962375</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5999674076624398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="B18">
-        <v>0.3515836631562515</v>
-      </c>
-      <c r="C18">
-        <v>0.87644188951899038</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>7.0073424204858015E-2</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>0.2169348179866547</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B18" t="n">
+        <v>0.2886478632893428</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8148122572559431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="B19">
-        <v>0.27774495454301862</v>
-      </c>
-      <c r="C19">
-        <v>0.76886415890009607</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>-7.3838708613232884E-2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>-0.10757773061889431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <f>AVERAGE(B2:B19)</f>
-        <v>0.16624983572636309</v>
-      </c>
-      <c r="C21">
-        <f>AVERAGE(C2:C19)</f>
-        <v>0.45343867476679872</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="D21:F21" si="1">AVERAGE(E2:E19)</f>
-        <v>1.5795264849428659E-2</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="1"/>
-        <v>3.947516290151501E-2</v>
+      <c r="B19" t="n">
+        <v>0.2140679205893518</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7133910081369921</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>